--- a/7月制作内容/编剧文档/【叶雯婷】文案需求.xlsx
+++ b/7月制作内容/编剧文档/【叶雯婷】文案需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>知交书信文本</t>
     </r>
     <r>
@@ -65,6 +73,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>知交支线剧情</t>
     </r>
     <r>
@@ -90,6 +106,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>追忆人物对话</t>
     </r>
     <r>
@@ -117,6 +141,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>物件情感故事</t>
     </r>
     <r>
@@ -145,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -180,6 +212,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -187,6 +234,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -195,13 +263,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -209,31 +310,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,78 +341,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,85 +377,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,97 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +575,76 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,75 +668,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,137 +688,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,9 +845,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1185,10 +1214,13 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="Q16" sqref="Q16:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="17" max="17" width="28.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
@@ -1573,7 +1605,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="10"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4"/>
@@ -1592,7 +1624,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="10"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" ht="57" customHeight="1" spans="1:17">
       <c r="A19" s="4"/>
@@ -1611,7 +1643,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="28">
